--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Itgax.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H2">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.156783</v>
+        <v>0.05829066666666666</v>
       </c>
       <c r="N2">
-        <v>0.470349</v>
+        <v>0.174872</v>
       </c>
       <c r="O2">
-        <v>0.003441910352632679</v>
+        <v>0.0009372933078703915</v>
       </c>
       <c r="P2">
-        <v>0.003441910352632679</v>
+        <v>0.0009372933078703916</v>
       </c>
       <c r="Q2">
-        <v>0.2443563396119999</v>
+        <v>0.08560027146488887</v>
       </c>
       <c r="R2">
-        <v>2.199207056508</v>
+        <v>0.7704024431839999</v>
       </c>
       <c r="S2">
-        <v>1.959170194038444E-05</v>
+        <v>4.797329081087821E-06</v>
       </c>
       <c r="T2">
-        <v>1.959170194038444E-05</v>
+        <v>4.797329081087821E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H3">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>45.39437433333334</v>
+        <v>0.01197066666666667</v>
       </c>
       <c r="N3">
-        <v>136.183123</v>
+        <v>0.035912</v>
       </c>
       <c r="O3">
-        <v>0.9965580896473674</v>
+        <v>0.0001924840870593434</v>
       </c>
       <c r="P3">
-        <v>0.9965580896473674</v>
+        <v>0.0001924840870593434</v>
       </c>
       <c r="Q3">
-        <v>70.75003763845733</v>
+        <v>0.01757901178488889</v>
       </c>
       <c r="R3">
-        <v>636.7503387461161</v>
+        <v>0.158211106064</v>
       </c>
       <c r="S3">
-        <v>0.005672509466644372</v>
+        <v>9.851873482319972E-07</v>
       </c>
       <c r="T3">
-        <v>0.005672509466644372</v>
+        <v>9.851873482319972E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>259.5505726666667</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H4">
-        <v>778.6517180000001</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I4">
-        <v>0.9479162344201305</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J4">
-        <v>0.9479162344201304</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156783</v>
+        <v>62.120161</v>
       </c>
       <c r="N4">
-        <v>0.470349</v>
+        <v>186.360483</v>
       </c>
       <c r="O4">
-        <v>0.003441910352632679</v>
+        <v>0.9988702226050702</v>
       </c>
       <c r="P4">
-        <v>0.003441910352632679</v>
+        <v>0.9988702226050703</v>
       </c>
       <c r="Q4">
-        <v>40.693117434398</v>
+        <v>91.22391197634731</v>
       </c>
       <c r="R4">
-        <v>366.238056909582</v>
+        <v>821.0152077871259</v>
       </c>
       <c r="S4">
-        <v>0.003262642700679233</v>
+        <v>0.005112496938683564</v>
       </c>
       <c r="T4">
-        <v>0.003262642700679232</v>
+        <v>0.005112496938683565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I5">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J5">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>45.39437433333334</v>
+        <v>0.05829066666666666</v>
       </c>
       <c r="N5">
-        <v>136.183123</v>
+        <v>0.174872</v>
       </c>
       <c r="O5">
-        <v>0.9965580896473674</v>
+        <v>0.0009372933078703915</v>
       </c>
       <c r="P5">
-        <v>0.9965580896473674</v>
+        <v>0.0009372933078703916</v>
       </c>
       <c r="Q5">
-        <v>11782.13585406171</v>
+        <v>15.12937591445511</v>
       </c>
       <c r="R5">
-        <v>106039.2226865553</v>
+        <v>136.164383230096</v>
       </c>
       <c r="S5">
-        <v>0.9446535917194513</v>
+        <v>0.0008479014588510497</v>
       </c>
       <c r="T5">
-        <v>0.9446535917194512</v>
+        <v>0.0008479014588510497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5133286666666667</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H6">
-        <v>1.539986</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.001874750541781658</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J6">
-        <v>0.001874750541781658</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,33 +803,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.156783</v>
+        <v>0.01197066666666667</v>
       </c>
       <c r="N6">
-        <v>0.470349</v>
+        <v>0.035912</v>
       </c>
       <c r="O6">
-        <v>0.003441910352632679</v>
+        <v>0.0001924840870593434</v>
       </c>
       <c r="P6">
-        <v>0.003441910352632679</v>
+        <v>0.0001924840870593434</v>
       </c>
       <c r="Q6">
-        <v>0.08048120834599999</v>
+        <v>3.106993388535111</v>
       </c>
       <c r="R6">
-        <v>0.7243308751139999</v>
+        <v>27.962940496816</v>
       </c>
       <c r="S6">
-        <v>6.452723298362013E-06</v>
+        <v>0.0001741264307050808</v>
       </c>
       <c r="T6">
-        <v>6.452723298362011E-06</v>
+        <v>0.0001741264307050808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5133286666666667</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H7">
-        <v>1.539986</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.001874750541781658</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J7">
-        <v>0.001874750541781658</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.39437433333334</v>
+        <v>62.120161</v>
       </c>
       <c r="N7">
-        <v>136.183123</v>
+        <v>186.360483</v>
       </c>
       <c r="O7">
-        <v>0.9965580896473674</v>
+        <v>0.9988702226050702</v>
       </c>
       <c r="P7">
-        <v>0.9965580896473674</v>
+        <v>0.9988702226050703</v>
       </c>
       <c r="Q7">
-        <v>23.30223365069756</v>
+        <v>16123.32336169553</v>
       </c>
       <c r="R7">
-        <v>209.720102856278</v>
+        <v>145109.9102552598</v>
       </c>
       <c r="S7">
-        <v>0.001868297818483296</v>
+        <v>0.9036056395985991</v>
       </c>
       <c r="T7">
-        <v>0.001868297818483296</v>
+        <v>0.9036056395985992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.18925266666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H8">
-        <v>36.567758</v>
+        <v>1.76722</v>
       </c>
       <c r="I8">
-        <v>0.04451691386950307</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J8">
-        <v>0.04451691386950307</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.156783</v>
+        <v>0.05829066666666666</v>
       </c>
       <c r="N8">
-        <v>0.470349</v>
+        <v>0.174872</v>
       </c>
       <c r="O8">
-        <v>0.003441910352632679</v>
+        <v>0.0009372933078703915</v>
       </c>
       <c r="P8">
-        <v>0.003441910352632679</v>
+        <v>0.0009372933078703916</v>
       </c>
       <c r="Q8">
-        <v>1.911067600838</v>
+        <v>0.03433747731555555</v>
       </c>
       <c r="R8">
-        <v>17.199608407542</v>
+        <v>0.30903729584</v>
       </c>
       <c r="S8">
-        <v>0.0001532232267146999</v>
+        <v>1.924388505761637E-06</v>
       </c>
       <c r="T8">
-        <v>0.0001532232267146999</v>
+        <v>1.924388505761637E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5890733333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.76722</v>
+      </c>
+      <c r="I9">
+        <v>0.002053133730501083</v>
+      </c>
+      <c r="J9">
+        <v>0.002053133730501083</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01197066666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.035912</v>
+      </c>
+      <c r="O9">
+        <v>0.0001924840870593434</v>
+      </c>
+      <c r="P9">
+        <v>0.0001924840870593434</v>
+      </c>
+      <c r="Q9">
+        <v>0.007051600515555556</v>
+      </c>
+      <c r="R9">
+        <v>0.06346440464</v>
+      </c>
+      <c r="S9">
+        <v>3.95195571726245E-07</v>
+      </c>
+      <c r="T9">
+        <v>3.95195571726245E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>12.18925266666667</v>
-      </c>
-      <c r="H9">
-        <v>36.567758</v>
-      </c>
-      <c r="I9">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="J9">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>45.39437433333334</v>
-      </c>
-      <c r="N9">
-        <v>136.183123</v>
-      </c>
-      <c r="O9">
-        <v>0.9965580896473674</v>
-      </c>
-      <c r="P9">
-        <v>0.9965580896473674</v>
-      </c>
-      <c r="Q9">
-        <v>553.3234983942483</v>
-      </c>
-      <c r="R9">
-        <v>4979.911485548235</v>
-      </c>
-      <c r="S9">
-        <v>0.04436369064278838</v>
-      </c>
-      <c r="T9">
-        <v>0.04436369064278838</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5890733333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.76722</v>
+      </c>
+      <c r="I10">
+        <v>0.002053133730501083</v>
+      </c>
+      <c r="J10">
+        <v>0.002053133730501083</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>62.120161</v>
+      </c>
+      <c r="N10">
+        <v>186.360483</v>
+      </c>
+      <c r="O10">
+        <v>0.9988702226050702</v>
+      </c>
+      <c r="P10">
+        <v>0.9988702226050703</v>
+      </c>
+      <c r="Q10">
+        <v>36.59333030747333</v>
+      </c>
+      <c r="R10">
+        <v>329.33997276726</v>
+      </c>
+      <c r="S10">
+        <v>0.002050814146423595</v>
+      </c>
+      <c r="T10">
+        <v>0.002050814146423595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>25.306101</v>
+      </c>
+      <c r="H11">
+        <v>75.91830299999999</v>
+      </c>
+      <c r="I11">
+        <v>0.0882009193262308</v>
+      </c>
+      <c r="J11">
+        <v>0.0882009193262308</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.05829066666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.174872</v>
+      </c>
+      <c r="O11">
+        <v>0.0009372933078703915</v>
+      </c>
+      <c r="P11">
+        <v>0.0009372933078703916</v>
+      </c>
+      <c r="Q11">
+        <v>1.475109498024</v>
+      </c>
+      <c r="R11">
+        <v>13.275985482216</v>
+      </c>
+      <c r="S11">
+        <v>8.267013143249241E-05</v>
+      </c>
+      <c r="T11">
+        <v>8.267013143249241E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>25.306101</v>
+      </c>
+      <c r="H12">
+        <v>75.91830299999999</v>
+      </c>
+      <c r="I12">
+        <v>0.0882009193262308</v>
+      </c>
+      <c r="J12">
+        <v>0.0882009193262308</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01197066666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.035912</v>
+      </c>
+      <c r="O12">
+        <v>0.0001924840870593434</v>
+      </c>
+      <c r="P12">
+        <v>0.0001924840870593434</v>
+      </c>
+      <c r="Q12">
+        <v>0.3029308997039999</v>
+      </c>
+      <c r="R12">
+        <v>2.726378097336</v>
+      </c>
+      <c r="S12">
+        <v>1.697727343430433E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.697727343430433E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>25.306101</v>
+      </c>
+      <c r="H13">
+        <v>75.91830299999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0882009193262308</v>
+      </c>
+      <c r="J13">
+        <v>0.0882009193262308</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>62.120161</v>
+      </c>
+      <c r="N13">
+        <v>186.360483</v>
+      </c>
+      <c r="O13">
+        <v>0.9988702226050702</v>
+      </c>
+      <c r="P13">
+        <v>0.9988702226050703</v>
+      </c>
+      <c r="Q13">
+        <v>1572.019068402261</v>
+      </c>
+      <c r="R13">
+        <v>14148.17161562035</v>
+      </c>
+      <c r="S13">
+        <v>0.08810127192136399</v>
+      </c>
+      <c r="T13">
+        <v>0.08810127192136401</v>
       </c>
     </row>
   </sheetData>
